--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3400443828690247</v>
+        <v>0.8095736585426743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08554430906960042</v>
+        <v>0.08675240000699005</v>
       </c>
       <c r="D2" t="n">
         <v>0.05</v>
@@ -463,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5948368209589274</v>
+        <v>0.6485218707477559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06568375890453038</v>
+        <v>0.07413056471773403</v>
       </c>
       <c r="D3" t="n">
         <v>0.05</v>
@@ -477,10 +477,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4154492121638986</v>
+        <v>0.7204793915924496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06186297114822761</v>
+        <v>0.05250439106305491</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -491,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.606243984059667</v>
+        <v>0.01347784747193792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04793751259948853</v>
+        <v>0.01197411784740592</v>
       </c>
       <c r="D5" t="n">
         <v>0.05</v>
@@ -505,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7369511800357892</v>
+        <v>0.31276577565334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.049865035229355</v>
+        <v>0.01243851635972426</v>
       </c>
       <c r="D6" t="n">
         <v>0.05</v>
@@ -519,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5438935982203437</v>
+        <v>0.2207252433997576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02693861175776445</v>
+        <v>0.05470258380168346</v>
       </c>
       <c r="D7" t="n">
         <v>0.05</v>
@@ -533,10 +533,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7055819390904696</v>
+        <v>0.717799753706883</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06164219741614205</v>
+        <v>0.08515690226481323</v>
       </c>
       <c r="D8" t="n">
         <v>0.05</v>
@@ -547,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3455547510529723</v>
+        <v>0.8935847367024606</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03319718541721591</v>
+        <v>0.07255551586057737</v>
       </c>
       <c r="D9" t="n">
         <v>0.05</v>
@@ -561,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9835489837626812</v>
+        <v>0.6199008220480541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06704864046388014</v>
+        <v>0.03782651134668853</v>
       </c>
       <c r="D10" t="n">
         <v>0.05</v>
@@ -575,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01395482031745143</v>
+        <v>0.008718593248705053</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01752370814767794</v>
+        <v>0.07186098823831509</v>
       </c>
       <c r="D11" t="n">
         <v>0.05</v>
@@ -589,10 +589,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5394569353631431</v>
+        <v>0.2244529043131532</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07301771169840832</v>
+        <v>0.01252228636076378</v>
       </c>
       <c r="D12" t="n">
         <v>0.05</v>
@@ -603,10 +603,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3273764943638661</v>
+        <v>0.1789576646271268</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02657256107231704</v>
+        <v>0.08573708627887872</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -617,10 +617,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3723271516974443</v>
+        <v>0.9852716979735032</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07446646667029022</v>
+        <v>0.02545945157928853</v>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -631,10 +631,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1464026065447486</v>
+        <v>0.8380370705562996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01403568091756986</v>
+        <v>0.09216557134198479</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -645,10 +645,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5970802223108934</v>
+        <v>0.4053579406622854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06894970213282657</v>
+        <v>0.02372575959555413</v>
       </c>
       <c r="D16" t="n">
         <v>0.05</v>
@@ -659,10 +659,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6165553097832926</v>
+        <v>0.3281710376121539</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08874145557308775</v>
+        <v>0.006160443697775598</v>
       </c>
       <c r="D17" t="n">
         <v>0.05</v>
@@ -673,10 +673,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2536061296219174</v>
+        <v>0.9795288400298422</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08439116359893119</v>
+        <v>0.05496698549131784</v>
       </c>
       <c r="D18" t="n">
         <v>0.05</v>
@@ -687,10 +687,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.944603159762738</v>
+        <v>0.8972516105412274</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08437676210602017</v>
+        <v>0.09244723787139124</v>
       </c>
       <c r="D19" t="n">
         <v>0.05</v>
@@ -701,10 +701,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337379820394384</v>
+        <v>0.2071369242951572</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02470556430505516</v>
+        <v>0.02764731420333573</v>
       </c>
       <c r="D20" t="n">
         <v>0.05</v>
@@ -715,12 +715,1552 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2704816478790967</v>
+        <v>0.3151636253282699</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01542155466462426</v>
+        <v>0.07159693148388728</v>
       </c>
       <c r="D21" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5568310835432969</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0637183211892568</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7598414331514386</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.009966653717483332</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8117880301789773</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003737890857773119</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1665549599662869</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05311598699369596</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7313763494980111</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.003825876277172946</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9159274314190015</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01011859785822355</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5640270448759044</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03369927783241621</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1388064924359603</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09463677305395986</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.03159652503574495</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0409938439788759</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6107280271990061</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.03496534953772397</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4545852527148863</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0847161093999225</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.685335027000896</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05964489499751518</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2814615614566207</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03062264936664233</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5754300533935599</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.09937676685676719</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4056039151630485</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.001856391737653862</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.893136499232286</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02994694971543732</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3751270071823282</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06236389039860313</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8302231915852359</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.06032168449088231</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6697240909957636</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.07257100841961121</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7038313381361032</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.00583944368363486</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4254032088945345</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.06494356298094527</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7393143064888825</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.004852006597978332</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3016681164467416</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05825570745264032</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5562338851765137</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02678970084948645</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.08130756080361989</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0972856368239967</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7834043482103318</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0848184829565115</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1856372073142804</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.07139912506636684</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7532170477490346</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.07296116965765086</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3460380696196302</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0113203101032576</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5266378338948707</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0317610894284789</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.254677899223686</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.00555876222358499</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1845291866387964</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.09340414687188431</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.08902180730964071</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.09733200447922058</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5579058600724871</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.04455946378703905</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3893958559069899</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.04784796619926235</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.6144005722987116</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.03206980336529374</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.08176976743265996</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.08905626403178894</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.6971637360059202</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0983262729947723</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1416466921123199</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.007118420852868035</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3898367113134654</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.08590425106425456</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.05637579507007029</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01870038575827128</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3502267405068291</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.04640992607583808</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4563375724057973</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.07120416462069208</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.786220493665399</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0270588354990464</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1135195432765739</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.04515290813138353</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1237738370657623</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.05516823865565398</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7218929515023186</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.094957118221687</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.03562729842258061</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.04242936812871748</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.02466383844017339</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.04191075971021026</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3220495814310551</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.09834848830341163</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3829712999181399</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.08481837701662999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.2354844933408778</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.06249311033205697</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.2186337258616635</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.02337498696098072</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.08478378025639832</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.02930855695897303</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.814323865810142</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.09915174773635141</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5248734976820847</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.04170323902978122</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8332171319269009</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.05196603072037666</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4423450441705337</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0643359853915887</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7051072234890302</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.03063827395832872</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4608605626900233</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.09745558770059935</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8264903455087582</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0380537368682665</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.06356176491521925</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.04277848761412109</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.6097747703163844</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.04509372613208917</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1493013061210592</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.04385730748199654</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.329519866479385</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.08187194473322518</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6913668306605021</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.01046974292983671</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5383815869453618</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.09275665360962206</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8345754471520368</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.06058207530637225</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.07075458387344402</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01064080837180393</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5402949354916869</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.09118812407262479</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6254383255937968</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01027328564083903</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6164337527344801</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.08040489985078447</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1179385244684712</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.07590567864695229</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7386816535044225</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.008117134802772074</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1068106532811626</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.05148982030108151</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9244531066161096</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.01503422094445598</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8888089461810131</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.008221516203578116</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8674552240172094</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.03349122146735353</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1343809118167917</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.03925562690224441</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5853990870103751</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.04958029817226352</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.8073352614786878</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.07210886185861112</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9087387450637449</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.04468958008780351</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.6325503566798523</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0598469813513744</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3177677049987627</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.03442264478440554</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.4569281251005693</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.08794062863386176</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.1382810719683278</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.08159936360432324</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7009889282698135</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.06864151039351062</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.501575471978514</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.09696350495687726</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5892249241178105</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.01529001389599385</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.6403040826969573</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.05818357392015472</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5755918834518741</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.06889143773966445</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.2833780328449699</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.06328966488866239</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5964162727655499</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.09019991682760801</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.007617102053164015</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.07178172104065866</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.2049135955811228</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0735352620121984</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4526832182956317</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.07346208087726347</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4099581864544225</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.08533555507911103</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7579829360388154</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.009258865822972607</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7463577017682201</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.01420105339861264</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.164027316264451</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.09367743859654304</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.2392253513906868</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.06020264183081299</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.08862842773385238</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.06342507979863705</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4242661287802149</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.05604767871092969</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6753420512869855</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.02130558161742802</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4335623192148438</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.01874307222989946</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4599096204550077</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.005125586628308776</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.003159407878275178</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.02257157853890662</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.08944060417153643</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.08549671194628472</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7928383723194293</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.01269894548112342</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.4634469343568943</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.02053608545462159</v>
+      </c>
+      <c r="D131" t="n">
         <v>0.05</v>
       </c>
     </row>
